--- a/console/Cloud-Security/高防翻译0522.xlsx
+++ b/console/Cloud-Security/高防翻译0522.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -155,9 +160,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Data Center</t>
-  </si>
-  <si>
     <t>JD Cloud Intelligent Scheduling Center</t>
   </si>
   <si>
@@ -328,13 +330,17 @@
   </si>
   <si>
     <t>Origin server IP: It is suggested that it be configured as the externally-invisible IP generally.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrubbing   Center</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -493,7 +499,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E65E0A6-5594-B44C-A670-6C599717A61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E65E0A6-5594-B44C-A670-6C599717A61A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,10 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A21:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -858,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1">
@@ -866,15 +873,15 @@
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
@@ -882,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1">
@@ -890,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1">
@@ -898,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1">
@@ -906,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1">
@@ -914,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="36" customHeight="1" thickBot="1">
@@ -922,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.95" customHeight="1" thickBot="1">
@@ -930,23 +937,23 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="47.1" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="47.1" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
